--- a/xlsx/雪铁龙C4_intext.xlsx
+++ b/xlsx/雪铁龙C4_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
   <si>
     <t>雪铁龙C4</t>
   </si>
@@ -29,7 +29,7 @@
     <t>雪铁龙</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_雪铁龙C4</t>
+    <t>政策_政策_混合动力车辆_雪铁龙C4</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%B8%95%E6%B4%9B%E9%A6%AC</t>
   </si>
   <si>
-    <t>埃爾帕洛馬</t>
+    <t>埃尔帕洛马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%9B%A7%E5%8A%A0</t>
   </si>
   <si>
-    <t>卡盧加</t>
+    <t>卡卢加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>汽車設計</t>
+    <t>汽车设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E7%A8%AE%E9%A1%9E</t>
   </si>
   <si>
-    <t>汽車種類</t>
+    <t>汽车种类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%BF%E8%BD%A6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E5%B9%B3%E5%8F%B0</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>歐洲年度風雲車</t>
+    <t>欧洲年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E4%BA%8B%E5%BE%97323</t>
   </si>
   <si>
-    <t>萬事得323</t>
+    <t>万事得323</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E9%81%93%E5%81%8F%E9%9B%A2%E8%AD%A6%E7%A4%BA</t>
   </si>
   <si>
-    <t>車道偏離警示</t>
+    <t>车道偏离警示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E7%A8%B3%E5%AE%9A%E7%A8%8B%E5%BA%8F</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%A2%BC%E8%81%B2%E9%9F%B3%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>數碼聲音廣播</t>
+    <t>数码声音广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99C5</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%A1%9E%E7%88%BE%E5%A4%9A%E5%A4%AB</t>
   </si>
   <si>
-    <t>杜塞爾多夫</t>
+    <t>杜塞尔多夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99C4L</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99C4_Aircross</t>
@@ -359,27 +359,24 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎跑車</t>
+    <t>轿跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A6%E8%BC%AA%E5%A2%9E%E5%A3%93</t>
   </si>
   <si>
-    <t>渦輪增壓</t>
+    <t>涡轮增压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A0%E9%80%9F%E7%86%84%E7%81%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>怠速熄火系統</t>
+    <t>怠速熄火系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99%E8%B5%9B%E7%BA%B3WRC</t>
   </si>
   <si>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E8%B3%BD</t>
   </si>
   <si>
-    <t>汽車賽</t>
+    <t>汽车赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DDS3</t>
   </si>
   <si>
-    <t>雪鐵龍DS3</t>
+    <t>雪铁龙DS3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4408</t>
@@ -461,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DM35</t>
   </si>
   <si>
-    <t>雪鐵龍M35</t>
+    <t>雪铁龙M35</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8DGT</t>
   </si>
   <si>
-    <t>雪鐵龍GT</t>
+    <t>雪铁龙GT</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99Xsara_WRC</t>
@@ -2793,7 +2790,7 @@
         <v>119</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2819,10 +2816,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" t="s">
         <v>121</v>
-      </c>
-      <c r="F69" t="s">
-        <v>122</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2848,10 +2845,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
         <v>123</v>
-      </c>
-      <c r="F70" t="s">
-        <v>124</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2877,10 +2874,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" t="s">
         <v>125</v>
-      </c>
-      <c r="F71" t="s">
-        <v>126</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2906,10 +2903,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" t="s">
         <v>125</v>
-      </c>
-      <c r="F72" t="s">
-        <v>126</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2935,10 +2932,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" t="s">
         <v>127</v>
-      </c>
-      <c r="F73" t="s">
-        <v>128</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2964,10 +2961,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>128</v>
+      </c>
+      <c r="F74" t="s">
         <v>129</v>
-      </c>
-      <c r="F74" t="s">
-        <v>130</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2993,10 +2990,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F75" t="s">
         <v>131</v>
-      </c>
-      <c r="F75" t="s">
-        <v>132</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3022,10 +3019,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
         <v>125</v>
-      </c>
-      <c r="F76" t="s">
-        <v>126</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3051,10 +3048,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77" t="s">
         <v>133</v>
-      </c>
-      <c r="F77" t="s">
-        <v>134</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3080,10 +3077,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" t="s">
         <v>135</v>
-      </c>
-      <c r="F78" t="s">
-        <v>136</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3109,10 +3106,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" t="s">
         <v>133</v>
-      </c>
-      <c r="F79" t="s">
-        <v>134</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3138,10 +3135,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" t="s">
         <v>137</v>
-      </c>
-      <c r="F80" t="s">
-        <v>138</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3167,10 +3164,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81" t="s">
         <v>139</v>
-      </c>
-      <c r="F81" t="s">
-        <v>140</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3225,10 +3222,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>140</v>
+      </c>
+      <c r="F83" t="s">
         <v>141</v>
-      </c>
-      <c r="F83" t="s">
-        <v>142</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3254,10 +3251,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" t="s">
         <v>143</v>
-      </c>
-      <c r="F84" t="s">
-        <v>144</v>
       </c>
       <c r="G84" t="n">
         <v>11</v>
@@ -3283,10 +3280,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>142</v>
+      </c>
+      <c r="F85" t="s">
         <v>143</v>
-      </c>
-      <c r="F85" t="s">
-        <v>144</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3312,10 +3309,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>144</v>
+      </c>
+      <c r="F86" t="s">
         <v>145</v>
-      </c>
-      <c r="F86" t="s">
-        <v>146</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3341,10 +3338,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>146</v>
+      </c>
+      <c r="F87" t="s">
         <v>147</v>
-      </c>
-      <c r="F87" t="s">
-        <v>148</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3428,10 +3425,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" t="s">
         <v>149</v>
-      </c>
-      <c r="F90" t="s">
-        <v>150</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3457,10 +3454,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>150</v>
+      </c>
+      <c r="F91" t="s">
         <v>151</v>
-      </c>
-      <c r="F91" t="s">
-        <v>152</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3486,10 +3483,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" t="s">
         <v>153</v>
-      </c>
-      <c r="F92" t="s">
-        <v>154</v>
       </c>
       <c r="G92" t="n">
         <v>11</v>
